--- a/apps/load_data/2017/09/PLMOVMAE.xlsx
+++ b/apps/load_data/2017/09/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2017\HHY0917\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2017\HHY0917\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{530CCB16-4C53-4EE1-B310-38985884D63C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D805FBC2-00D0-4591-ADF8-F8D4E48E50B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$250</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$250</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9798" uniqueCount="2489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9786" uniqueCount="2488">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6431,9 +6432,6 @@
   </si>
   <si>
     <t>08771747</t>
-  </si>
-  <si>
-    <t>S/N</t>
   </si>
   <si>
     <t>1047    123169    1231691081    296920    2969201082    159880    1598802001         0     386002006     39200     392002026    200868    2008682027      3068      30682028      6000      60002029      1500      15002086      2500      2500</t>
@@ -7495,7 +7493,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -8335,10 +8333,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC253" sqref="AC253"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -44297,12 +44297,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2136</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>104</v>
       </c>
@@ -44361,10 +44356,10 @@
         <v>109</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2137</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2138</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>112</v>
@@ -44376,7 +44371,7 @@
         <v>151</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>116</v>
@@ -44397,13 +44392,13 @@
         <v>98</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2140</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2141</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2142</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -44438,13 +44433,13 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2143</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2144</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2145</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>97</v>
@@ -44479,12 +44474,7 @@
       <c r="AB210" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2136</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>104</v>
       </c>
@@ -44531,7 +44521,7 @@
         <v>98</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="BB210" s="1">
         <v>9</v>
@@ -44543,10 +44533,10 @@
         <v>109</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2147</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2148</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>112</v>
@@ -44558,13 +44548,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="BS210" s="3">
         <v>36949</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>116</v>
@@ -44588,13 +44578,13 @@
         <v>98</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>1770</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -44629,13 +44619,13 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2153</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2154</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2155</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -44670,12 +44660,7 @@
       <c r="AB211" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2136</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>104</v>
       </c>
@@ -44722,7 +44707,7 @@
         <v>98</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="BB211" s="1">
         <v>9</v>
@@ -44737,7 +44722,7 @@
         <v>109</v>
       </c>
       <c r="BH211" s="1" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="BI211" s="1" t="s">
         <v>1444</v>
@@ -44752,13 +44737,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="BS211" s="3">
         <v>36825</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>116</v>
@@ -44782,13 +44767,13 @@
         <v>98</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2160</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2161</v>
-      </c>
-      <c r="CE211" s="1" t="s">
-        <v>2162</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -44823,13 +44808,13 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2163</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2164</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2165</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -44861,12 +44846,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2136</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>104</v>
       </c>
@@ -44916,7 +44896,7 @@
         <v>98</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="BB212" s="1">
         <v>9</v>
@@ -44928,10 +44908,10 @@
         <v>109</v>
       </c>
       <c r="BH212" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="BI212" s="1" t="s">
         <v>2167</v>
-      </c>
-      <c r="BI212" s="1" t="s">
-        <v>2168</v>
       </c>
       <c r="BM212" s="1" t="s">
         <v>112</v>
@@ -44940,7 +44920,7 @@
         <v>103</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>116</v>
@@ -44958,13 +44938,13 @@
         <v>98</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>1100</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -44999,13 +44979,13 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2172</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2173</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2174</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -45037,12 +45017,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2136</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>104</v>
       </c>
@@ -45092,7 +45067,7 @@
         <v>98</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="BB213" s="1">
         <v>9</v>
@@ -45104,10 +45079,10 @@
         <v>109</v>
       </c>
       <c r="BH213" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="BI213" s="1" t="s">
         <v>2176</v>
-      </c>
-      <c r="BI213" s="1" t="s">
-        <v>2177</v>
       </c>
       <c r="BM213" s="1" t="s">
         <v>112</v>
@@ -45116,7 +45091,7 @@
         <v>103</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>116</v>
@@ -45137,10 +45112,10 @@
         <v>636</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2179</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2180</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -45175,13 +45150,13 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2181</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2182</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2183</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -45213,12 +45188,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2136</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>104</v>
       </c>
@@ -45268,7 +45238,7 @@
         <v>98</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="BB214" s="1">
         <v>9</v>
@@ -45280,10 +45250,10 @@
         <v>109</v>
       </c>
       <c r="BH214" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="BI214" s="1" t="s">
         <v>2185</v>
-      </c>
-      <c r="BI214" s="1" t="s">
-        <v>2186</v>
       </c>
       <c r="BM214" s="1" t="s">
         <v>112</v>
@@ -45292,7 +45262,7 @@
         <v>103</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>116</v>
@@ -45310,13 +45280,13 @@
         <v>98</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="CD214" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2188</v>
-      </c>
-      <c r="CD214" s="1" t="s">
-        <v>2188</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2189</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -45351,13 +45321,13 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2190</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2191</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2192</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -45395,12 +45365,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2136</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>104</v>
       </c>
@@ -45447,7 +45412,7 @@
         <v>98</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="BB215" s="1">
         <v>9</v>
@@ -45456,16 +45421,16 @@
         <v>17</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>109</v>
       </c>
       <c r="BH215" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="BI215" s="1" t="s">
         <v>2195</v>
-      </c>
-      <c r="BI215" s="1" t="s">
-        <v>2196</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>112</v>
@@ -45477,13 +45442,13 @@
         <v>113</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="BS215" s="3">
         <v>35243</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>116</v>
@@ -45501,13 +45466,13 @@
         <v>98</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2199</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2200</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2201</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -45542,13 +45507,13 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2202</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2203</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2204</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -45580,12 +45545,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2136</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>104</v>
       </c>
@@ -45635,7 +45595,7 @@
         <v>98</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="BB216" s="1">
         <v>9</v>
@@ -45647,10 +45607,10 @@
         <v>109</v>
       </c>
       <c r="BH216" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="BI216" s="1" t="s">
         <v>2206</v>
-      </c>
-      <c r="BI216" s="1" t="s">
-        <v>2207</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>112</v>
@@ -45659,7 +45619,7 @@
         <v>103</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>116</v>
@@ -45677,13 +45637,13 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2209</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2210</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2211</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -45718,13 +45678,13 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2212</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2213</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2214</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -45756,12 +45716,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2136</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>104</v>
       </c>
@@ -45811,7 +45766,7 @@
         <v>98</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="BB217" s="1">
         <v>9</v>
@@ -45823,10 +45778,10 @@
         <v>109</v>
       </c>
       <c r="BH217" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="BI217" s="1" t="s">
         <v>2216</v>
-      </c>
-      <c r="BI217" s="1" t="s">
-        <v>2217</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>112</v>
@@ -45838,7 +45793,7 @@
         <v>151</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>116</v>
@@ -45856,13 +45811,13 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2219</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2220</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2221</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -45897,13 +45852,13 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2222</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2223</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2224</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -45935,12 +45890,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2136</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>104</v>
       </c>
@@ -45987,7 +45937,7 @@
         <v>98</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="BB218" s="1">
         <v>9</v>
@@ -45996,16 +45946,16 @@
         <v>17</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>109</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2227</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2228</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>112</v>
@@ -46017,13 +45967,13 @@
         <v>203</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="BS218" s="3">
         <v>34307</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>116</v>
@@ -46041,13 +45991,13 @@
         <v>98</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>421</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -46082,13 +46032,13 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2234</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2235</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -46123,12 +46073,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2136</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>104</v>
       </c>
@@ -46178,7 +46123,7 @@
         <v>98</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="BB219" s="1">
         <v>9</v>
@@ -46193,10 +46138,10 @@
         <v>109</v>
       </c>
       <c r="BH219" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="BI219" s="1" t="s">
         <v>2237</v>
-      </c>
-      <c r="BI219" s="1" t="s">
-        <v>2238</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>112</v>
@@ -46205,7 +46150,7 @@
         <v>103</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>116</v>
@@ -46226,13 +46171,13 @@
         <v>98</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2240</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2241</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2242</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -46267,13 +46212,13 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2244</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2245</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -46305,12 +46250,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2136</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>104</v>
       </c>
@@ -46357,7 +46297,7 @@
         <v>98</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="BB220" s="1">
         <v>9</v>
@@ -46372,10 +46312,10 @@
         <v>109</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2247</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2248</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>112</v>
@@ -46387,13 +46327,13 @@
         <v>113</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="BS220" s="3">
         <v>35950</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>116</v>
@@ -46411,13 +46351,13 @@
         <v>98</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1609</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -46452,13 +46392,13 @@
         <v>312</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2254</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2255</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -46509,7 +46449,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -46548,13 +46488,13 @@
         <v>109</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>116</v>
@@ -46578,10 +46518,10 @@
         <v>2031</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2259</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2260</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -46616,13 +46556,13 @@
         <v>312</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2261</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2262</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2263</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -46676,7 +46616,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -46715,13 +46655,13 @@
         <v>109</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>116</v>
@@ -46742,13 +46682,13 @@
         <v>98</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2266</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2267</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2268</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -46783,13 +46723,13 @@
         <v>312</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2269</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2270</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2271</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -46843,7 +46783,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -46882,13 +46822,13 @@
         <v>109</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>116</v>
@@ -46909,13 +46849,13 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2274</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2275</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2276</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -46950,13 +46890,13 @@
         <v>312</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2277</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2278</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2279</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -47046,13 +46986,13 @@
         <v>109</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>116</v>
@@ -47073,10 +47013,10 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>191</v>
@@ -47114,13 +47054,13 @@
         <v>312</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2284</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2285</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -47174,7 +47114,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -47213,13 +47153,13 @@
         <v>109</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>116</v>
@@ -47243,13 +47183,13 @@
         <v>98</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -47284,13 +47224,13 @@
         <v>312</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2289</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2290</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2291</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
@@ -47341,7 +47281,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -47380,13 +47320,13 @@
         <v>109</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>116</v>
@@ -47407,13 +47347,13 @@
         <v>98</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="CE226" s="1" t="s">
         <v>2295</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2210</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2296</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -47448,10 +47388,10 @@
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2297</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2298</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>214</v>
@@ -47520,7 +47460,7 @@
         <v>16</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="BX227" s="1">
         <v>0</v>
@@ -47538,7 +47478,7 @@
         <v>218</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -47573,10 +47513,10 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2300</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2301</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>214</v>
@@ -47660,7 +47600,7 @@
         <v>218</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -47695,13 +47635,13 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2302</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2303</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2304</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -47782,7 +47722,7 @@
         <v>98</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BB229" s="1">
         <v>9</v>
@@ -47794,10 +47734,10 @@
         <v>109</v>
       </c>
       <c r="BH229" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="BI229" s="1" t="s">
         <v>2306</v>
-      </c>
-      <c r="BI229" s="1" t="s">
-        <v>2307</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>112</v>
@@ -47809,7 +47749,7 @@
         <v>151</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>116</v>
@@ -47827,13 +47767,13 @@
         <v>98</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>421</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -47868,13 +47808,13 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2311</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2312</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2313</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
@@ -47952,7 +47892,7 @@
         <v>98</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BB230" s="1">
         <v>9</v>
@@ -47964,10 +47904,10 @@
         <v>109</v>
       </c>
       <c r="BH230" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="BI230" s="1" t="s">
         <v>2315</v>
-      </c>
-      <c r="BI230" s="1" t="s">
-        <v>2316</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>112</v>
@@ -47979,13 +47919,13 @@
         <v>203</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="BS230" s="3">
         <v>36099</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>116</v>
@@ -48003,13 +47943,13 @@
         <v>98</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2319</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2320</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2321</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -48044,13 +47984,13 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2322</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2323</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2324</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
@@ -48128,7 +48068,7 @@
         <v>98</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BB231" s="1">
         <v>9</v>
@@ -48140,10 +48080,10 @@
         <v>109</v>
       </c>
       <c r="BH231" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="BI231" s="1" t="s">
         <v>2326</v>
-      </c>
-      <c r="BI231" s="1" t="s">
-        <v>2327</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>112</v>
@@ -48155,13 +48095,13 @@
         <v>99</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BS231" s="3">
         <v>37735</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>116</v>
@@ -48179,13 +48119,13 @@
         <v>98</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2330</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2331</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2332</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -48220,13 +48160,13 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2333</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2334</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2335</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
@@ -48307,7 +48247,7 @@
         <v>98</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BB232" s="1">
         <v>9</v>
@@ -48319,7 +48259,7 @@
         <v>109</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>112</v>
@@ -48328,7 +48268,7 @@
         <v>103</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>116</v>
@@ -48346,13 +48286,13 @@
         <v>98</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>796</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -48387,13 +48327,13 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2341</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2342</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2343</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
@@ -48429,7 +48369,7 @@
         <v>104</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>1706</v>
@@ -48474,7 +48414,7 @@
         <v>98</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="BB233" s="1">
         <v>9</v>
@@ -48486,7 +48426,7 @@
         <v>109</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BI233" s="1" t="s">
         <v>1657</v>
@@ -48498,7 +48438,7 @@
         <v>103</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>116</v>
@@ -48519,10 +48459,10 @@
         <v>1425</v>
       </c>
       <c r="CD233" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="CE233" s="1" t="s">
         <v>2348</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2349</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -48557,13 +48497,13 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2350</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2351</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2352</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
@@ -48644,7 +48584,7 @@
         <v>98</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="BB234" s="1">
         <v>9</v>
@@ -48656,7 +48596,7 @@
         <v>109</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="BI234" s="1" t="s">
         <v>1768</v>
@@ -48668,7 +48608,7 @@
         <v>103</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>116</v>
@@ -48692,7 +48632,7 @@
         <v>867</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -48727,13 +48667,13 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2357</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2358</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2359</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
@@ -48814,7 +48754,7 @@
         <v>98</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="BB235" s="1">
         <v>9</v>
@@ -48826,10 +48766,10 @@
         <v>109</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BI235" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>112</v>
@@ -48838,7 +48778,7 @@
         <v>103</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>116</v>
@@ -48856,13 +48796,13 @@
         <v>98</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="CD235" s="1" t="s">
         <v>2363</v>
       </c>
-      <c r="CD235" s="1" t="s">
+      <c r="CE235" s="1" t="s">
         <v>2364</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2365</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -48897,13 +48837,13 @@
         <v>312</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2366</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2367</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2368</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
@@ -48945,7 +48885,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -48978,13 +48918,13 @@
         <v>109</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>116</v>
@@ -49002,13 +48942,13 @@
         <v>98</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>294</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -49043,13 +48983,13 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2374</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2375</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2376</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
@@ -49091,7 +49031,7 @@
         <v>42247</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>104</v>
@@ -49145,16 +49085,16 @@
         <v>17</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="BG237" s="1" t="s">
         <v>109</v>
       </c>
       <c r="BH237" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="BI237" s="1" t="s">
         <v>2378</v>
-      </c>
-      <c r="BI237" s="1" t="s">
-        <v>2379</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>112</v>
@@ -49166,13 +49106,13 @@
         <v>203</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="BS237" s="3">
         <v>36580</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>116</v>
@@ -49193,7 +49133,7 @@
         <v>98</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>284</v>
@@ -49234,13 +49174,13 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2383</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2384</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2385</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>97</v>
@@ -49330,10 +49270,10 @@
         <v>109</v>
       </c>
       <c r="BH238" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="BI238" s="1" t="s">
         <v>2386</v>
-      </c>
-      <c r="BI238" s="1" t="s">
-        <v>2387</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>112</v>
@@ -49345,13 +49285,13 @@
         <v>113</v>
       </c>
       <c r="BR238" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="BS238" s="3">
         <v>37747</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>116</v>
@@ -49375,7 +49315,7 @@
         <v>626</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="239" spans="1:83" x14ac:dyDescent="0.25">
@@ -49410,13 +49350,13 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2391</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="N239" s="1" t="s">
         <v>2392</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2393</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>97</v>
@@ -49506,7 +49446,7 @@
         <v>109</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>112</v>
@@ -49515,7 +49455,7 @@
         <v>103</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>116</v>
@@ -49533,13 +49473,13 @@
         <v>98</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="CD239" s="1" t="s">
         <v>2396</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CE239" s="1" t="s">
         <v>2397</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2398</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -49574,13 +49514,13 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="L240" s="1" t="s">
         <v>2399</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="N240" s="1" t="s">
         <v>2400</v>
-      </c>
-      <c r="N240" s="1" t="s">
-        <v>2401</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>97</v>
@@ -49670,7 +49610,7 @@
         <v>109</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BI240" s="1" t="s">
         <v>846</v>
@@ -49682,7 +49622,7 @@
         <v>103</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>116</v>
@@ -49700,13 +49640,13 @@
         <v>98</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="CD240" s="1" t="s">
         <v>2404</v>
       </c>
-      <c r="CD240" s="1" t="s">
+      <c r="CE240" s="1" t="s">
         <v>2405</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2406</v>
       </c>
     </row>
     <row r="241" spans="1:83" x14ac:dyDescent="0.25">
@@ -49741,13 +49681,13 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="L241" s="1" t="s">
         <v>2407</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="N241" s="1" t="s">
         <v>2408</v>
-      </c>
-      <c r="N241" s="1" t="s">
-        <v>2409</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>97</v>
@@ -49837,10 +49777,10 @@
         <v>109</v>
       </c>
       <c r="BH241" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="BI241" s="1" t="s">
         <v>2410</v>
-      </c>
-      <c r="BI241" s="1" t="s">
-        <v>2411</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>112</v>
@@ -49852,13 +49792,13 @@
         <v>99</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BS241" s="3">
         <v>37334</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>116</v>
@@ -49879,10 +49819,10 @@
         <v>503</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2414</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2415</v>
       </c>
     </row>
     <row r="242" spans="1:83" x14ac:dyDescent="0.25">
@@ -49917,13 +49857,13 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="L242" s="1" t="s">
         <v>2416</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>2417</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>2418</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>97</v>
@@ -50013,10 +49953,10 @@
         <v>109</v>
       </c>
       <c r="BH242" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="BI242" s="1" t="s">
         <v>2419</v>
-      </c>
-      <c r="BI242" s="1" t="s">
-        <v>2420</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>112</v>
@@ -50028,13 +49968,13 @@
         <v>99</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BS242" s="3">
         <v>37904</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>116</v>
@@ -50055,10 +49995,10 @@
         <v>867</v>
       </c>
       <c r="CD242" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="CE242" s="1" t="s">
         <v>2423</v>
-      </c>
-      <c r="CE242" s="1" t="s">
-        <v>2424</v>
       </c>
     </row>
     <row r="243" spans="1:83" x14ac:dyDescent="0.25">
@@ -50093,13 +50033,13 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2425</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2426</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2427</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>97</v>
@@ -50186,7 +50126,7 @@
         <v>109</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="BI243" s="1" t="s">
         <v>2039</v>
@@ -50201,13 +50141,13 @@
         <v>113</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BS243" s="3">
         <v>36111</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>116</v>
@@ -50225,13 +50165,13 @@
         <v>98</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="244" spans="1:83" x14ac:dyDescent="0.25">
@@ -50266,13 +50206,13 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2433</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2434</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2435</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>97</v>
@@ -50362,10 +50302,10 @@
         <v>109</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="BI244" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>112</v>
@@ -50377,13 +50317,13 @@
         <v>113</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="BS244" s="3">
         <v>37785</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>116</v>
@@ -50401,13 +50341,13 @@
         <v>98</v>
       </c>
       <c r="CC244" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="CD244" s="1" t="s">
         <v>2439</v>
       </c>
-      <c r="CD244" s="1" t="s">
+      <c r="CE244" s="1" t="s">
         <v>2440</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2441</v>
       </c>
     </row>
     <row r="245" spans="1:83" x14ac:dyDescent="0.25">
@@ -50442,13 +50382,13 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2442</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2443</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2444</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>97</v>
@@ -50538,7 +50478,7 @@
         <v>109</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>112</v>
@@ -50547,7 +50487,7 @@
         <v>103</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>116</v>
@@ -50568,10 +50508,10 @@
         <v>1136</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="CE245" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2448</v>
       </c>
     </row>
     <row r="246" spans="1:83" x14ac:dyDescent="0.25">
@@ -50609,10 +50549,10 @@
         <v>246</v>
       </c>
       <c r="L246" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="M246" s="1" t="s">
         <v>2449</v>
-      </c>
-      <c r="M246" s="1" t="s">
-        <v>2450</v>
       </c>
       <c r="N246" s="1" t="s">
         <v>248</v>
@@ -50645,7 +50585,7 @@
         <v>42582</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>104</v>
@@ -50696,10 +50636,10 @@
         <v>249</v>
       </c>
       <c r="BH246" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="BI246" s="1" t="s">
         <v>2452</v>
-      </c>
-      <c r="BI246" s="1" t="s">
-        <v>2453</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>112</v>
@@ -50773,16 +50713,16 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="M247" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="N247" s="1" t="s">
         <v>2455</v>
-      </c>
-      <c r="M247" s="1" t="s">
-        <v>2450</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2456</v>
       </c>
       <c r="Q247" s="3">
         <v>17060</v>
@@ -50818,7 +50758,7 @@
         <v>42628</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>104</v>
@@ -50869,16 +50809,16 @@
         <v>98</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BD247" s="1" t="s">
         <v>216</v>
       </c>
       <c r="BH247" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="BI247" s="1" t="s">
         <v>2459</v>
-      </c>
-      <c r="BI247" s="1" t="s">
-        <v>2460</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>112</v>
@@ -50887,7 +50827,7 @@
         <v>103</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>116</v>
@@ -50911,7 +50851,7 @@
         <v>120</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="248" spans="1:83" x14ac:dyDescent="0.25">
@@ -50946,16 +50886,16 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="M248" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="N248" s="1" t="s">
         <v>2464</v>
-      </c>
-      <c r="M248" s="1" t="s">
-        <v>2450</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2465</v>
       </c>
       <c r="Q248" s="3">
         <v>26864</v>
@@ -50985,7 +50925,7 @@
         <v>42735</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="AF248" s="1" t="s">
         <v>104</v>
@@ -51036,7 +50976,7 @@
         <v>99</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>112</v>
@@ -51048,13 +50988,13 @@
         <v>203</v>
       </c>
       <c r="BR248" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BS248" s="3">
         <v>102</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>116</v>
@@ -51075,13 +51015,13 @@
         <v>98</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="CD248" s="1" t="s">
         <v>2470</v>
       </c>
-      <c r="CD248" s="1" t="s">
+      <c r="CE248" s="1" t="s">
         <v>2471</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2472</v>
       </c>
     </row>
     <row r="249" spans="1:83" x14ac:dyDescent="0.25">
@@ -51116,16 +51056,16 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2473</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="M249" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="N249" s="1" t="s">
         <v>2474</v>
-      </c>
-      <c r="M249" s="1" t="s">
-        <v>2450</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2475</v>
       </c>
       <c r="Q249" s="3">
         <v>17041</v>
@@ -51152,7 +51092,7 @@
         <v>42735</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>104</v>
@@ -51203,7 +51143,7 @@
         <v>98</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>112</v>
@@ -51212,7 +51152,7 @@
         <v>103</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>116</v>
@@ -51233,13 +51173,13 @@
         <v>98</v>
       </c>
       <c r="CC249" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="CD249" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="CD249" s="1" t="s">
+      <c r="CE249" s="1" t="s">
         <v>2479</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>2480</v>
       </c>
     </row>
     <row r="250" spans="1:83" x14ac:dyDescent="0.25">
@@ -51274,16 +51214,16 @@
         <v>93</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="L250" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="L250" s="1" t="s">
+      <c r="M250" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="N250" s="1" t="s">
         <v>2482</v>
-      </c>
-      <c r="M250" s="1" t="s">
-        <v>2450</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>2483</v>
       </c>
       <c r="Q250" s="3">
         <v>25379</v>
@@ -51313,7 +51253,7 @@
         <v>39800</v>
       </c>
       <c r="AD250" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="AF250" s="1" t="s">
         <v>222</v>
@@ -51364,7 +51304,7 @@
         <v>99</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>112</v>
@@ -51376,13 +51316,13 @@
         <v>214</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BS250" s="3">
         <v>35915</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>116</v>
@@ -51412,10 +51352,11 @@
         <v>432</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF250" xr:uid="{467678AE-90CB-4604-A0B0-076643C725EF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>